--- a/data/trans_orig/P14B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{457B3B67-9F83-41D9-ADDE-3064D8EA7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32078E49-85C8-4AF1-B631-283FAE65E604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22866715-2089-4BF3-9C22-40463574478D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FE6BC4D-BBDD-468A-B4E7-B0538E5B40BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -114,13 +114,13 @@
     <t>15,38%</t>
   </si>
   <si>
-    <t>59,56%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>51,9%</t>
+    <t>61,24%</t>
   </si>
   <si>
     <t>66,58%</t>
@@ -129,13 +129,13 @@
     <t>84,62%</t>
   </si>
   <si>
-    <t>40,44%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>48,1%</t>
+    <t>38,76%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -144,55 +144,55 @@
     <t>32,5%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -201,367 +201,367 @@
     <t>50,41%</t>
   </si>
   <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>79,77%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E195991B-369F-469E-8B6B-636E6BD27C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C945D6-D434-44BF-AA58-19C20E27FEA3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4F816D-E613-4142-B611-59B7379BE2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F3C4E-F06D-43A7-BDFD-DFBA441773DF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32078E49-85C8-4AF1-B631-283FAE65E604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2D62E1-AC48-4B07-95CC-0596B3EC3F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FE6BC4D-BBDD-468A-B4E7-B0538E5B40BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF0E0888-2EA2-4A0D-9B47-A09213896403}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,7 +105,7 @@
     <t>59,35%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>33,42%</t>
@@ -114,13 +114,13 @@
     <t>15,38%</t>
   </si>
   <si>
-    <t>59,86%</t>
+    <t>60,37%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>61,24%</t>
+    <t>52,73%</t>
   </si>
   <si>
     <t>66,58%</t>
@@ -129,121 +129,121 @@
     <t>84,62%</t>
   </si>
   <si>
-    <t>40,14%</t>
+    <t>39,63%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>50,41%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
-    <t>78,36%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>44,2%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>49,59%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>63,65%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -252,109 +252,109 @@
     <t>9,98%</t>
   </si>
   <si>
-    <t>45,47%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>54,53%</t>
+    <t>54,65%</t>
   </si>
   <si>
     <t>57,56%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población cuya úlcera de estómago le limita en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -366,13 +366,13 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>69,12%</t>
+    <t>66,87%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>52,32%</t>
+    <t>51,46%</t>
   </si>
   <si>
     <t>79,47%</t>
@@ -381,13 +381,13 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>30,88%</t>
+    <t>33,13%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>47,68%</t>
+    <t>48,54%</t>
   </si>
   <si>
     <t>16,73%</t>
@@ -399,19 +399,19 @@
     <t>56,17%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>83,27%</t>
@@ -423,19 +423,19 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>43,3%</t>
@@ -444,13 +444,13 @@
     <t>16,28%</t>
   </si>
   <si>
-    <t>64,53%</t>
+    <t>50,69%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>56,7%</t>
@@ -459,13 +459,13 @@
     <t>83,72%</t>
   </si>
   <si>
-    <t>35,47%</t>
+    <t>49,31%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>43,04%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -474,19 +474,19 @@
     <t>53,37%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -495,73 +495,73 @@
     <t>46,63%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>58,61%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C945D6-D434-44BF-AA58-19C20E27FEA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C46954-4431-4725-BECD-2886119D40CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F3C4E-F06D-43A7-BDFD-DFBA441773DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07D778-77FB-4D8F-A90A-181ED57CE71B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
